--- a/APPSHEET/EXCEL/habitacion_estado_resumen_franco.xlsx
+++ b/APPSHEET/EXCEL/habitacion_estado_resumen_franco.xlsx
@@ -158,7 +158,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LIMPIANDO</t>
+            <t xml:space="preserve">OCUPADO</t>
           </r>
         </is>
       </c>
@@ -167,7 +167,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">40000</t>
           </r>
         </is>
       </c>
@@ -176,7 +176,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -185,7 +185,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/33NORMAL.nombre_imagen.053652.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/31NORMAL.nombre_imagen.052958.png</t>
           </r>
         </is>
       </c>
@@ -196,7 +196,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OCUPADO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -205,7 +205,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">480000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -214,7 +214,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">25</t>
           </r>
         </is>
       </c>
@@ -223,168 +223,16 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/32NORMAL.nombre_imagen.053601.png</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="4" customHeight="1" ht="20">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">MANTENIMIENTO</t>
-          </r>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">3</t>
-          </r>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/35NORMAL.nombre_imagen.053841.png</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="5" customHeight="1" ht="20">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">OCUPADO</t>
-          </r>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">720000</t>
-          </r>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">6</t>
-          </r>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/31NORMAL.nombre_imagen.052958.png</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="6" customHeight="1" ht="20">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">SUCIO</t>
-          </r>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">3</t>
-          </r>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/34NORMAL.nombre_imagen.053800.png</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="7" customHeight="1" ht="20">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">LIBRE</t>
-          </r>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">9</t>
-          </r>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
             <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
     </row>
-    <row r="8" customHeight="1" ht="575">
-      <c r="A8" s="2" t="inlineStr"/>
-      <c r="B8" s="2" t="inlineStr"/>
-      <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
+    <row r="4" customHeight="1" ht="575">
+      <c r="A4" s="2" t="inlineStr"/>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
